--- a/06_振り返り/18_開発体験シート.xlsx
+++ b/06_振り返り/18_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB57794D-9EBE-4381-B74D-A59E252838C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF032DB-67A0-45B7-B8EA-1BC4C484D1B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="0" windowWidth="11820" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1787,7 +1787,9 @@
       <c r="E9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" s="38"/>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
@@ -1806,7 +1808,9 @@
       <c r="E10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
@@ -1825,7 +1829,9 @@
       <c r="E11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1846,7 +1852,9 @@
       <c r="E12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G12" s="42"/>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1865,7 +1873,9 @@
       <c r="E13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
@@ -1905,7 +1915,9 @@
       <c r="E15" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="42"/>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1924,7 +1936,9 @@
       <c r="E16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
@@ -1964,7 +1978,9 @@
       <c r="E18" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
@@ -1981,7 +1997,9 @@
       <c r="E19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2002,7 +2020,9 @@
       <c r="E20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
@@ -2019,7 +2039,9 @@
       <c r="E21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2038,7 +2060,9 @@
       <c r="E22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G22" s="39"/>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2055,7 +2079,9 @@
       <c r="E23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
@@ -2074,7 +2100,9 @@
       <c r="E24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2091,7 +2119,9 @@
       <c r="E25" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2112,7 +2142,9 @@
       <c r="E26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="42"/>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
@@ -2129,7 +2161,9 @@
       <c r="E27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2144,13 +2178,15 @@
         <v>42</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G28" s="40"/>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
+        <v>○</v>
       </c>
       <c r="I28" s="13"/>
     </row>
@@ -2165,13 +2201,15 @@
         <v>45</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G29" s="42"/>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
-        <v>●</v>
+        <v>○</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -2182,13 +2220,15 @@
         <v>46</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G30" s="39"/>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
+        <v>○</v>
       </c>
       <c r="I30" s="9"/>
     </row>
@@ -2199,13 +2239,15 @@
         <v>47</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G31" s="39"/>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
+        <v>○</v>
       </c>
       <c r="I31" s="9"/>
     </row>
@@ -2218,13 +2260,15 @@
         <v>49</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
-        <v>●</v>
+        <v>○</v>
       </c>
       <c r="I32" s="9"/>
     </row>
@@ -2235,13 +2279,15 @@
         <v>50</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
+        <v>○</v>
       </c>
       <c r="I33" s="9"/>
     </row>
@@ -2252,13 +2298,15 @@
         <v>51</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G34" s="39"/>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
+        <v>○</v>
       </c>
       <c r="I34" s="9"/>
     </row>
@@ -2271,13 +2319,15 @@
         <v>53</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="G35" s="41"/>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
+        <v>○</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -2290,7 +2340,9 @@
       <c r="E36" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="39"/>
+      <c r="F36" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2307,7 +2359,9 @@
       <c r="E37" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2347,6 +2401,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2530,15 +2593,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
@@ -2549,13 +2603,27 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944FD10C-B44B-456F-A5B1-302071E536DA}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944FD10C-B44B-456F-A5B1-302071E536DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/06_振り返り/18_開発体験シート.xlsx
+++ b/06_振り返り/18_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF032DB-67A0-45B7-B8EA-1BC4C484D1B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6A969-12F7-4C9F-B58C-12BEB4213405}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2021,7 +2021,7 @@
         <v>57</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
@@ -2040,7 +2040,7 @@
         <v>57</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
@@ -2401,15 +2401,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2593,6 +2584,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
@@ -2603,14 +2603,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944FD10C-B44B-456F-A5B1-302071E536DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2626,4 +2618,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/06_振り返り/18_開発体験シート.xlsx
+++ b/06_振り返り/18_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6A969-12F7-4C9F-B58C-12BEB4213405}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63288DF6-981C-4875-B0C0-FB2B7C4E0A7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1790,7 +1790,9 @@
       <c r="F9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1811,7 +1813,9 @@
       <c r="F10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1832,7 +1836,9 @@
       <c r="F11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1855,7 +1861,9 @@
       <c r="F12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1876,7 +1884,9 @@
       <c r="F13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1918,7 +1928,9 @@
       <c r="F15" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1939,7 +1951,9 @@
       <c r="F16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1981,7 +1995,9 @@
       <c r="F18" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2000,7 +2016,9 @@
       <c r="F19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2023,7 +2041,9 @@
       <c r="F20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2042,7 +2062,9 @@
       <c r="F21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2063,7 +2085,9 @@
       <c r="F22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2082,7 +2106,9 @@
       <c r="F23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2103,7 +2129,9 @@
       <c r="F24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2122,7 +2150,9 @@
       <c r="F25" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2145,10 +2175,12 @@
       <c r="F26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
-        <v>－</v>
+        <v>●</v>
       </c>
       <c r="I26" s="9"/>
     </row>
@@ -2164,10 +2196,12 @@
       <c r="F27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>●</v>
       </c>
       <c r="I27" s="5"/>
     </row>
@@ -2183,7 +2217,9 @@
       <c r="F28" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2206,7 +2242,9 @@
       <c r="F29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -2225,7 +2263,9 @@
       <c r="F30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2244,7 +2284,9 @@
       <c r="F31" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2265,7 +2307,9 @@
       <c r="F32" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -2284,7 +2328,9 @@
       <c r="F33" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2303,7 +2349,9 @@
       <c r="F34" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2324,7 +2372,9 @@
       <c r="F35" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2343,10 +2393,12 @@
       <c r="F36" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2362,10 +2414,12 @@
       <c r="F37" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -2401,6 +2455,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2584,15 +2647,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
@@ -2603,6 +2657,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944FD10C-B44B-456F-A5B1-302071E536DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2618,12 +2680,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/06_振り返り/18_開発体験シート.xlsx
+++ b/06_振り返り/18_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63288DF6-981C-4875-B0C0-FB2B7C4E0A7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E09970B-D146-4C08-A5CD-FB8063D64391}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4530" yWindow="705" windowWidth="20250" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -539,6 +539,202 @@
   </si>
   <si>
     <t>－</t>
+  </si>
+  <si>
+    <t>現状理解の後、改善案の提案をする</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気合論ではなく現実的なリカバリ案を出す方がよい</t>
+    <rPh sb="0" eb="2">
+      <t>キアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ロン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ゲンジツテキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体の期限に間に合うように自分の中でのタスク管理も重要である</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間内で円滑に進めるための事前準備は必要である</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エンカツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復を重ねるにつれて計画の質が上がった</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抜け漏れをなくすのは大切である</t>
+    <rPh sb="0" eb="1">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後の再開発を視野に入れて考える</t>
+    <rPh sb="0" eb="1">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイカイハツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み手のことを考えてわかりやすい配置にする</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ機能も利用して見やすい図の作成に努める</t>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのクラスをテストするのか、明確にしてからケースを考える</t>
+    <rPh sb="14" eb="16">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1732,10 +1928,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1843,7 +2039,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="62" t="s">
@@ -1891,7 +2089,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="69"/>
@@ -1935,7 +2135,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
@@ -2048,7 +2250,9 @@
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="60"/>
@@ -2092,7 +2296,9 @@
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="60"/>
@@ -2182,7 +2388,9 @@
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="60"/>
@@ -2249,7 +2457,9 @@
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="55"/>
@@ -2335,7 +2545,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="55"/>
@@ -2356,7 +2568,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="55"/>
@@ -2379,7 +2593,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="55"/>
@@ -2449,21 +2665,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2647,24 +2848,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944FD10C-B44B-456F-A5B1-302071E536DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2680,4 +2879,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>